--- a/Documentação/Planilhas/Conferencia_ORC.xlsx
+++ b/Documentação/Planilhas/Conferencia_ORC.xlsx
@@ -366,53 +366,53 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +731,7 @@
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
@@ -781,10 +781,10 @@
       <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -792,10 +792,10 @@
       <c r="AU2" s="4"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
@@ -854,19 +854,19 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1097,51 +1097,51 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
@@ -1161,7 +1161,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9"/>
@@ -1170,7 +1170,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
@@ -1179,7 +1179,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="27" spans="1:7">
       <c r="E27" s="9" t="s">
@@ -1200,17 +1200,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
     <mergeCell ref="D21:D25"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="E27:E31"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="B18:G20"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
